--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C95C000-FED5-4470-B70E-FB8090EEE133}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122F9B57-B316-4B40-B36A-304AB3EE64AC}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="840" windowWidth="17280" windowHeight="11040" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="69">
   <si>
     <t>Line</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Non</t>
+  </si>
+  <si>
+    <t>beep</t>
+  </si>
+  <si>
+    <t>boop</t>
   </si>
 </sst>
 </file>
@@ -657,9 +663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8FE392-6FC0-4F53-90EE-920DCF161686}">
   <dimension ref="A1:T151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6372,8 +6378,8 @@
       <c r="O88">
         <v>88</v>
       </c>
-      <c r="P88">
-        <v>0</v>
+      <c r="P88" t="s">
+        <v>67</v>
       </c>
       <c r="Q88" s="3">
         <v>0</v>
@@ -6437,9 +6443,6 @@
       <c r="O89">
         <v>89</v>
       </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -6502,8 +6505,8 @@
       <c r="O90">
         <v>90</v>
       </c>
-      <c r="P90">
-        <v>0</v>
+      <c r="P90" t="s">
+        <v>68</v>
       </c>
       <c r="Q90" s="3">
         <v>0</v>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{122F9B57-B316-4B40-B36A-304AB3EE64AC}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4B216E-F8B0-4AA0-955C-BC48A94DAF40}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
   <si>
     <t>Line</t>
   </si>
@@ -244,6 +244,9 @@
   <si>
     <t>boop</t>
   </si>
+  <si>
+    <t>Yard</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,6 +324,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8FE392-6FC0-4F53-90EE-920DCF161686}">
-  <dimension ref="A1:T151"/>
+  <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P91" sqref="P91"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="102" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,34 +749,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3">
-        <f t="shared" ref="G2:G33" si="0">E2*D2/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="3">
-        <f>G2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="B2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>40</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
@@ -776,212 +783,211 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>66</v>
+      <c r="N2">
+        <v>64</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f>A2</f>
-        <v>Green</v>
+      <c r="A3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
+      <c r="C3" s="5">
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>100</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="3">
         <v>45</v>
       </c>
       <c r="G3" s="3">
+        <f t="shared" ref="G3:G34" si="0">E3*D3/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3">
+        <f>G3</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="str">
+        <f>A3</f>
+        <v>Green</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <f>G3+H2</f>
+      <c r="H4" s="3">
+        <f>G4+H3</f>
         <v>1.5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A67" si="1">A3</f>
-        <v>Green</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <f t="shared" ref="A5:A68" si="1">A4</f>
+        <v>Green</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E5" s="3">
         <v>1.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F5" s="3">
         <v>45</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H67" si="2">G4+H3</f>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H68" si="2">G5+H4</f>
         <v>3</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>4</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Green</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1007,25 +1013,25 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
-        <v>5</v>
+      <c r="C6" s="5">
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>100</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
         <v>45</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1043,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1073,24 +1079,24 @@
         <v>10</v>
       </c>
       <c r="C7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <v>100</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
         <v>45</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1108,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1135,27 +1141,27 @@
         <v>Green</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>45</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1173,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1202,21 +1208,21 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6">
-        <v>8</v>
+      <c r="C9" s="5">
+        <v>7</v>
       </c>
       <c r="D9" s="3">
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3">
         <v>45</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="2"/>
@@ -1238,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1268,30 +1274,30 @@
         <v>11</v>
       </c>
       <c r="C10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>45</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1303,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1332,31 +1338,31 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
-        <v>10</v>
+      <c r="C11" s="6">
+        <v>9</v>
       </c>
       <c r="D11" s="3">
         <v>100</v>
       </c>
       <c r="E11" s="3">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="F11" s="3">
         <v>45</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1368,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1397,25 +1403,25 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
-        <v>11</v>
+      <c r="C12" s="5">
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="F12" s="3">
         <v>45</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1433,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1462,25 +1468,25 @@
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
-        <v>12</v>
+      <c r="C13" s="6">
+        <v>11</v>
       </c>
       <c r="D13" s="3">
         <v>100</v>
       </c>
       <c r="E13" s="3">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F13" s="3">
         <v>45</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -1498,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1525,23 +1531,23 @@
         <v>Green</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="6">
-        <v>13</v>
-      </c>
       <c r="D14" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F14" s="3">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
@@ -1562,26 +1568,26 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" t="s">
-        <v>56</v>
+      <c r="N14">
+        <v>11</v>
       </c>
       <c r="O14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" s="3" t="b">
-        <v>1</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -1593,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>150</v>
@@ -1627,26 +1633,26 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15">
-        <v>13</v>
+      <c r="N15" t="s">
+        <v>56</v>
       </c>
       <c r="O15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -1657,8 +1663,8 @@
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5">
-        <v>15</v>
+      <c r="C16" s="6">
+        <v>14</v>
       </c>
       <c r="D16" s="3">
         <v>150</v>
@@ -1693,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1722,8 +1728,8 @@
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="6">
-        <v>16</v>
+      <c r="C17" s="5">
+        <v>15</v>
       </c>
       <c r="D17" s="3">
         <v>150</v>
@@ -1742,14 +1748,14 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I17" t="s">
-        <v>38</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1758,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1785,10 +1791,10 @@
         <v>Green</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>16</v>
       </c>
       <c r="D18" s="3">
         <v>150</v>
@@ -1797,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
@@ -1807,14 +1813,14 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
+      <c r="I18" t="s">
+        <v>38</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1823,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1852,8 +1858,8 @@
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6">
-        <v>18</v>
+      <c r="C19" s="5">
+        <v>17</v>
       </c>
       <c r="D19" s="3">
         <v>150</v>
@@ -1888,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1918,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3">
         <v>150</v>
@@ -1947,16 +1953,16 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1982,8 +1988,8 @@
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5">
-        <v>20</v>
+      <c r="C21" s="6">
+        <v>19</v>
       </c>
       <c r="D21" s="3">
         <v>150</v>
@@ -2012,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2045,19 +2051,19 @@
         <v>Green</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="6">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="C22" s="5">
+        <v>20</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
@@ -2083,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2112,8 +2118,8 @@
       <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5">
-        <v>22</v>
+      <c r="C23" s="6">
+        <v>21</v>
       </c>
       <c r="D23" s="3">
         <v>300</v>
@@ -2132,14 +2138,14 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I23" t="s">
-        <v>52</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -2148,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2177,8 +2183,8 @@
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="6">
-        <v>23</v>
+      <c r="C24" s="5">
+        <v>22</v>
       </c>
       <c r="D24" s="3">
         <v>300</v>
@@ -2197,14 +2203,14 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" t="s">
+        <v>52</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -2213,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2243,7 +2249,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
         <v>300</v>
@@ -2278,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2307,11 +2313,11 @@
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="5">
-        <v>25</v>
+      <c r="C26" s="6">
+        <v>24</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2343,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2372,11 +2378,11 @@
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="6">
-        <v>26</v>
+      <c r="C27" s="5">
+        <v>25</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2408,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2437,17 +2443,17 @@
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="5">
-        <v>27</v>
+      <c r="C28" s="6">
+        <v>26</v>
       </c>
       <c r="D28" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
@@ -2473,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2502,8 +2508,8 @@
       <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6">
-        <v>28</v>
+      <c r="C29" s="5">
+        <v>27</v>
       </c>
       <c r="D29" s="3">
         <v>50</v>
@@ -2538,24 +2544,24 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>27</v>
-      </c>
-      <c r="O29" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="O29">
+        <v>28</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T29" s="3" t="b">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2565,10 +2571,10 @@
         <v>Green</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3">
         <v>50</v>
@@ -2603,24 +2609,24 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>28</v>
-      </c>
-      <c r="O30">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-      <c r="Q30" s="3">
-        <v>0</v>
-      </c>
-      <c r="R30" s="3">
-        <v>0</v>
-      </c>
-      <c r="S30" s="3">
-        <v>0</v>
-      </c>
-      <c r="T30" s="3">
+      <c r="Q30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2632,8 +2638,8 @@
       <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="5">
-        <v>30</v>
+      <c r="C31" s="6">
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <v>50</v>
@@ -2668,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2697,8 +2703,8 @@
       <c r="B32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="6">
-        <v>31</v>
+      <c r="C32" s="5">
+        <v>30</v>
       </c>
       <c r="D32" s="3">
         <v>50</v>
@@ -2717,11 +2723,11 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I32" t="s">
-        <v>39</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2733,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2762,8 +2768,8 @@
       <c r="B33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="5">
-        <v>32</v>
+      <c r="C33" s="6">
+        <v>31</v>
       </c>
       <c r="D33" s="3">
         <v>50</v>
@@ -2782,11 +2788,11 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
+      <c r="I33" t="s">
+        <v>39</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2798,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2825,10 +2831,10 @@
         <v>Green</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="6">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="5">
+        <v>32</v>
       </c>
       <c r="D34" s="3">
         <v>50</v>
@@ -2840,7 +2846,7 @@
         <v>30</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G65" si="3">E34*D34/100</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H34" s="3">
@@ -2863,10 +2869,10 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2893,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3">
         <v>50</v>
@@ -2905,7 +2911,7 @@
         <v>30</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G35:G66" si="3">E35*D35/100</f>
         <v>0</v>
       </c>
       <c r="H35" s="3">
@@ -2928,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2957,8 +2963,8 @@
       <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="5">
-        <v>35</v>
+      <c r="C36" s="6">
+        <v>34</v>
       </c>
       <c r="D36" s="3">
         <v>50</v>
@@ -2993,10 +2999,10 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3020,10 +3026,10 @@
         <v>Green</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="6">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="C37" s="5">
+        <v>35</v>
       </c>
       <c r="D37" s="3">
         <v>50</v>
@@ -3055,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3081,14 +3087,14 @@
     </row>
     <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
-        <f>A34</f>
+        <f t="shared" si="1"/>
         <v>Green</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="3">
         <v>50</v>
@@ -3123,10 +3129,10 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3146,14 +3152,14 @@
     </row>
     <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>A35</f>
         <v>Green</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="5">
-        <v>38</v>
+      <c r="C39" s="6">
+        <v>37</v>
       </c>
       <c r="D39" s="3">
         <v>50</v>
@@ -3188,10 +3194,10 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -3217,8 +3223,8 @@
       <c r="B40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="6">
-        <v>39</v>
+      <c r="C40" s="5">
+        <v>38</v>
       </c>
       <c r="D40" s="3">
         <v>50</v>
@@ -3237,14 +3243,14 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I40" t="s">
-        <v>40</v>
+      <c r="I40" s="3">
+        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -3253,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3283,7 +3289,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3">
         <v>50</v>
@@ -3302,14 +3308,14 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="I41" t="s">
+        <v>40</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -3318,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3347,8 +3353,8 @@
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="5">
-        <v>41</v>
+      <c r="C42" s="6">
+        <v>40</v>
       </c>
       <c r="D42" s="3">
         <v>50</v>
@@ -3383,10 +3389,10 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3412,8 +3418,8 @@
       <c r="B43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="6">
-        <v>42</v>
+      <c r="C43" s="5">
+        <v>41</v>
       </c>
       <c r="D43" s="3">
         <v>50</v>
@@ -3448,10 +3454,10 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -3478,7 +3484,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="3">
         <v>50</v>
@@ -3513,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="N44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -3542,8 +3548,8 @@
       <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="5">
-        <v>44</v>
+      <c r="C45" s="6">
+        <v>43</v>
       </c>
       <c r="D45" s="3">
         <v>50</v>
@@ -3578,10 +3584,10 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3607,8 +3613,8 @@
       <c r="B46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="6">
-        <v>45</v>
+      <c r="C46" s="5">
+        <v>44</v>
       </c>
       <c r="D46" s="3">
         <v>50</v>
@@ -3643,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="N46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3673,7 +3679,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="3">
         <v>50</v>
@@ -3708,10 +3714,10 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3737,8 +3743,8 @@
       <c r="B48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="5">
-        <v>47</v>
+      <c r="C48" s="6">
+        <v>46</v>
       </c>
       <c r="D48" s="3">
         <v>50</v>
@@ -3773,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="N48">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3802,8 +3808,8 @@
       <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="6">
-        <v>48</v>
+      <c r="C49" s="5">
+        <v>47</v>
       </c>
       <c r="D49" s="3">
         <v>50</v>
@@ -3822,14 +3828,14 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I49" t="s">
-        <v>41</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3838,10 +3844,10 @@
         <v>1</v>
       </c>
       <c r="N49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3868,7 +3874,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="3">
         <v>50</v>
@@ -3887,14 +3893,14 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I50" s="3">
-        <v>0</v>
+      <c r="I50" t="s">
+        <v>41</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
@@ -3903,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3932,8 +3938,8 @@
       <c r="B51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="5">
-        <v>50</v>
+      <c r="C51" s="6">
+        <v>49</v>
       </c>
       <c r="D51" s="3">
         <v>50</v>
@@ -3968,10 +3974,10 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3997,8 +4003,8 @@
       <c r="B52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="6">
-        <v>51</v>
+      <c r="C52" s="5">
+        <v>50</v>
       </c>
       <c r="D52" s="3">
         <v>50</v>
@@ -4033,10 +4039,10 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -4063,7 +4069,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="3">
         <v>50</v>
@@ -4098,10 +4104,10 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -4127,8 +4133,8 @@
       <c r="B54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="5">
-        <v>53</v>
+      <c r="C54" s="6">
+        <v>52</v>
       </c>
       <c r="D54" s="3">
         <v>50</v>
@@ -4163,10 +4169,10 @@
         <v>1</v>
       </c>
       <c r="N54">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -4192,8 +4198,8 @@
       <c r="B55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="6">
-        <v>54</v>
+      <c r="C55" s="5">
+        <v>53</v>
       </c>
       <c r="D55" s="3">
         <v>50</v>
@@ -4228,10 +4234,10 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -4258,7 +4264,7 @@
         <v>17</v>
       </c>
       <c r="C56" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="3">
         <v>50</v>
@@ -4293,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -4322,8 +4328,8 @@
       <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="5">
-        <v>56</v>
+      <c r="C57" s="6">
+        <v>55</v>
       </c>
       <c r="D57" s="3">
         <v>50</v>
@@ -4358,10 +4364,10 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -4387,8 +4393,8 @@
       <c r="B58" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="6">
-        <v>57</v>
+      <c r="C58" s="5">
+        <v>56</v>
       </c>
       <c r="D58" s="3">
         <v>50</v>
@@ -4407,14 +4413,14 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I58" t="s">
-        <v>42</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4423,24 +4429,24 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>56</v>
-      </c>
-      <c r="O58" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58">
         <v>57</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3" t="b">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4450,10 +4456,10 @@
         <v>Green</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="3">
         <v>50</v>
@@ -4472,40 +4478,40 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" t="s">
+        <v>42</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
+        <v>56</v>
+      </c>
+      <c r="O59" t="s">
         <v>57</v>
       </c>
-      <c r="O59">
-        <v>59</v>
-      </c>
       <c r="P59">
         <v>0</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="Q59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4517,8 +4523,8 @@
       <c r="B60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="5">
-        <v>59</v>
+      <c r="C60" s="6">
+        <v>58</v>
       </c>
       <c r="D60" s="3">
         <v>50</v>
@@ -4553,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -4582,8 +4588,8 @@
       <c r="B61" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="6">
-        <v>60</v>
+      <c r="C61" s="5">
+        <v>59</v>
       </c>
       <c r="D61" s="3">
         <v>50</v>
@@ -4618,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -4648,7 +4654,7 @@
         <v>18</v>
       </c>
       <c r="C62" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="3">
         <v>50</v>
@@ -4683,10 +4689,10 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -4712,8 +4718,8 @@
       <c r="B63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="5">
-        <v>62</v>
+      <c r="C63" s="6">
+        <v>61</v>
       </c>
       <c r="D63" s="3">
         <v>50</v>
@@ -4748,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -4775,19 +4781,19 @@
         <v>Green</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="6">
-        <v>63</v>
+        <v>18</v>
+      </c>
+      <c r="C64" s="5">
+        <v>62</v>
       </c>
       <c r="D64" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
       </c>
       <c r="F64" s="3">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="3"/>
@@ -4812,26 +4818,26 @@
       <c r="M64">
         <v>0</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64">
+        <v>61</v>
+      </c>
+      <c r="O64">
         <v>63</v>
       </c>
-      <c r="O64">
-        <v>64</v>
-      </c>
       <c r="P64">
         <v>0</v>
       </c>
-      <c r="Q64" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R64" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S64" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T64" s="3" t="b">
-        <v>1</v>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -4843,7 +4849,7 @@
         <v>19</v>
       </c>
       <c r="C65" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="3">
         <v>100</v>
@@ -4877,26 +4883,26 @@
       <c r="M65">
         <v>0</v>
       </c>
-      <c r="N65">
+      <c r="N65" t="s">
         <v>63</v>
       </c>
       <c r="O65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-      <c r="Q65" s="3">
-        <v>0</v>
-      </c>
-      <c r="R65" s="3">
-        <v>0</v>
-      </c>
-      <c r="S65" s="3">
-        <v>0</v>
-      </c>
-      <c r="T65" s="3">
-        <v>0</v>
+      <c r="Q65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T65" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -4907,11 +4913,11 @@
       <c r="B66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="5">
-        <v>65</v>
+      <c r="C66" s="6">
+        <v>64</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -4920,21 +4926,21 @@
         <v>70</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" ref="G66:G97" si="4">E66*D66/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I66" t="s">
-        <v>43</v>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -4943,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4972,8 +4978,8 @@
       <c r="B67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="6">
-        <v>66</v>
+      <c r="C67" s="5">
+        <v>65</v>
       </c>
       <c r="D67" s="3">
         <v>200</v>
@@ -4985,21 +4991,21 @@
         <v>70</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G67:G98" si="4">E67*D67/100</f>
         <v>0</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I67" s="3">
-        <v>0</v>
+      <c r="I67" t="s">
+        <v>43</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="3">
         <v>0</v>
@@ -5008,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -5031,30 +5037,30 @@
     </row>
     <row r="68" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
-        <f t="shared" ref="A68:A131" si="5">A67</f>
+        <f t="shared" si="1"/>
         <v>Green</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C68" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E68" s="3">
         <v>0</v>
       </c>
       <c r="F68" s="3">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G68" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" ref="H68:H131" si="6">G68+H67</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I68" s="3">
@@ -5073,10 +5079,10 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -5096,14 +5102,14 @@
     </row>
     <row r="69" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A69:A132" si="5">A68</f>
         <v>Green</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="5">
-        <v>68</v>
+      <c r="C69" s="6">
+        <v>67</v>
       </c>
       <c r="D69" s="3">
         <v>100</v>
@@ -5119,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H69:H132" si="6">G69+H68</f>
         <v>0.5</v>
       </c>
       <c r="I69" s="3">
@@ -5138,10 +5144,10 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -5165,10 +5171,10 @@
         <v>Green</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="6">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="C70" s="5">
+        <v>68</v>
       </c>
       <c r="D70" s="3">
         <v>100</v>
@@ -5203,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -5233,7 +5239,7 @@
         <v>20</v>
       </c>
       <c r="C71" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="3">
         <v>100</v>
@@ -5268,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -5297,8 +5303,8 @@
       <c r="B72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="5">
-        <v>71</v>
+      <c r="C72" s="6">
+        <v>70</v>
       </c>
       <c r="D72" s="3">
         <v>100</v>
@@ -5333,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -5362,8 +5368,8 @@
       <c r="B73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="6">
-        <v>72</v>
+      <c r="C73" s="5">
+        <v>71</v>
       </c>
       <c r="D73" s="3">
         <v>100</v>
@@ -5398,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -5428,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="C74" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="3">
         <v>100</v>
@@ -5447,14 +5453,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I74" t="s">
-        <v>44</v>
+      <c r="I74" s="3">
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" s="3">
         <v>0</v>
@@ -5463,10 +5469,10 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -5490,10 +5496,10 @@
         <v>Green</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="5">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="C75" s="6">
+        <v>73</v>
       </c>
       <c r="D75" s="3">
         <v>100</v>
@@ -5512,14 +5518,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I75" s="3">
-        <v>0</v>
+      <c r="I75" t="s">
+        <v>44</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="3">
         <v>0</v>
@@ -5528,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -5557,8 +5563,8 @@
       <c r="B76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="6">
-        <v>75</v>
+      <c r="C76" s="5">
+        <v>74</v>
       </c>
       <c r="D76" s="3">
         <v>100</v>
@@ -5593,10 +5599,10 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -5623,7 +5629,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="3">
         <v>100</v>
@@ -5658,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -5685,19 +5691,19 @@
         <v>Green</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C78" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E78" s="3">
         <v>0</v>
       </c>
       <c r="F78" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="4"/>
@@ -5707,14 +5713,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I78" t="s">
-        <v>45</v>
+      <c r="I78" s="3">
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" s="3">
         <v>0</v>
@@ -5722,26 +5728,26 @@
       <c r="M78">
         <v>0</v>
       </c>
-      <c r="N78" t="s">
-        <v>58</v>
+      <c r="N78">
+        <v>75</v>
       </c>
       <c r="O78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
-      <c r="Q78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R78" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T78" s="3" t="b">
-        <v>1</v>
+      <c r="Q78" s="3">
+        <v>0</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
+        <v>0</v>
+      </c>
+      <c r="T78" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -5752,8 +5758,8 @@
       <c r="B79" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="5">
-        <v>78</v>
+      <c r="C79" s="6">
+        <v>77</v>
       </c>
       <c r="D79" s="3">
         <v>300</v>
@@ -5772,14 +5778,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I79" s="3">
-        <v>0</v>
+      <c r="I79" t="s">
+        <v>45</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="3">
         <v>0</v>
@@ -5787,26 +5793,26 @@
       <c r="M79">
         <v>0</v>
       </c>
-      <c r="N79">
-        <v>77</v>
+      <c r="N79" t="s">
+        <v>58</v>
       </c>
       <c r="O79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
-      <c r="Q79" s="3">
-        <v>0</v>
-      </c>
-      <c r="R79" s="3">
-        <v>0</v>
-      </c>
-      <c r="S79" s="3">
-        <v>0</v>
-      </c>
-      <c r="T79" s="3">
-        <v>0</v>
+      <c r="Q79" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S79" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T79" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -5817,8 +5823,8 @@
       <c r="B80" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="6">
-        <v>79</v>
+      <c r="C80" s="5">
+        <v>78</v>
       </c>
       <c r="D80" s="3">
         <v>300</v>
@@ -5853,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5883,7 +5889,7 @@
         <v>22</v>
       </c>
       <c r="C81" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="3">
         <v>300</v>
@@ -5918,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -5948,7 +5954,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D82" s="3">
         <v>300</v>
@@ -5983,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -6012,8 +6018,8 @@
       <c r="B83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="5">
-        <v>82</v>
+      <c r="C83" s="6">
+        <v>81</v>
       </c>
       <c r="D83" s="3">
         <v>300</v>
@@ -6048,10 +6054,10 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -6077,8 +6083,8 @@
       <c r="B84" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="6">
-        <v>83</v>
+      <c r="C84" s="5">
+        <v>82</v>
       </c>
       <c r="D84" s="3">
         <v>300</v>
@@ -6113,10 +6119,10 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -6143,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="C85" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" s="3">
         <v>300</v>
@@ -6178,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -6208,7 +6214,7 @@
         <v>22</v>
       </c>
       <c r="C86" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="3">
         <v>300</v>
@@ -6243,24 +6249,24 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>84</v>
-      </c>
-      <c r="O86" t="s">
-        <v>59</v>
+        <v>83</v>
+      </c>
+      <c r="O86">
+        <v>85</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
-      <c r="Q86" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R86" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S86" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T86" s="3" t="b">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6270,19 +6276,19 @@
         <v>Green</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="5">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="C87" s="6">
+        <v>85</v>
       </c>
       <c r="D87" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E87" s="3">
         <v>0</v>
       </c>
       <c r="F87" s="3">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G87" s="3">
         <f t="shared" si="4"/>
@@ -6308,24 +6314,24 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>85</v>
-      </c>
-      <c r="O87">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="O87" t="s">
+        <v>59</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
-      <c r="Q87" s="3">
-        <v>0</v>
-      </c>
-      <c r="R87" s="3">
-        <v>0</v>
-      </c>
-      <c r="S87" s="3">
-        <v>0</v>
-      </c>
-      <c r="T87" s="3">
+      <c r="Q87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S87" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6337,11 +6343,11 @@
       <c r="B88" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="6">
-        <v>87</v>
+      <c r="C88" s="5">
+        <v>86</v>
       </c>
       <c r="D88" s="3">
-        <v>86.6</v>
+        <v>100</v>
       </c>
       <c r="E88" s="3">
         <v>0</v>
@@ -6373,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O88">
-        <v>88</v>
-      </c>
-      <c r="P88" t="s">
-        <v>67</v>
+        <v>87</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
       </c>
       <c r="Q88" s="3">
         <v>0</v>
@@ -6403,10 +6409,10 @@
         <v>23</v>
       </c>
       <c r="C89" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>86.6</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6422,11 +6428,11 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I89" t="s">
-        <v>46</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -6438,10 +6444,13 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O89">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="P89" t="s">
+        <v>67</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6462,33 +6471,33 @@
         <v>Green</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C90" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E90" s="3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F90" s="3">
         <v>25</v>
       </c>
       <c r="G90" s="3">
         <f t="shared" si="4"/>
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="H90" s="3">
         <f t="shared" si="6"/>
-        <v>0.125</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="I90" t="s">
+        <v>46</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -6500,13 +6509,10 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O90">
-        <v>90</v>
-      </c>
-      <c r="P90" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="Q90" s="3">
         <v>0</v>
@@ -6529,25 +6535,25 @@
       <c r="B91" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="5">
-        <v>90</v>
+      <c r="C91" s="6">
+        <v>89</v>
       </c>
       <c r="D91" s="3">
         <v>75</v>
       </c>
       <c r="E91" s="3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="F91" s="3">
         <v>25</v>
       </c>
       <c r="G91" s="3">
         <f t="shared" si="4"/>
-        <v>-0.75</v>
+        <v>-0.375</v>
       </c>
       <c r="H91" s="3">
         <f t="shared" si="6"/>
-        <v>-0.625</v>
+        <v>0.125</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -6565,13 +6571,13 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O91">
-        <v>91</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="P91" t="s">
+        <v>68</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6594,25 +6600,25 @@
       <c r="B92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="6">
-        <v>91</v>
+      <c r="C92" s="5">
+        <v>90</v>
       </c>
       <c r="D92" s="3">
         <v>75</v>
       </c>
       <c r="E92" s="3">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F92" s="3">
         <v>25</v>
       </c>
       <c r="G92" s="3">
         <f t="shared" si="4"/>
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="H92" s="3">
         <f t="shared" si="6"/>
-        <v>-2.125</v>
+        <v>-0.625</v>
       </c>
       <c r="I92" s="3">
         <v>0</v>
@@ -6630,10 +6636,10 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -6660,20 +6666,20 @@
         <v>24</v>
       </c>
       <c r="C93" s="6">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="3">
         <v>75</v>
       </c>
       <c r="E93" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F93" s="3">
         <v>25</v>
       </c>
       <c r="G93" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="H93" s="3">
         <f t="shared" si="6"/>
@@ -6695,10 +6701,10 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -6725,24 +6731,24 @@
         <v>24</v>
       </c>
       <c r="C94" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="3">
         <v>75</v>
       </c>
       <c r="E94" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>25</v>
       </c>
       <c r="G94" s="3">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <f t="shared" si="6"/>
-        <v>-0.625</v>
+        <v>-2.125</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -6760,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -6789,25 +6795,25 @@
       <c r="B95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="5">
-        <v>94</v>
+      <c r="C95" s="6">
+        <v>93</v>
       </c>
       <c r="D95" s="3">
         <v>75</v>
       </c>
       <c r="E95" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="3">
         <v>25</v>
       </c>
       <c r="G95" s="3">
         <f t="shared" si="4"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="H95" s="3">
         <f t="shared" si="6"/>
-        <v>0.125</v>
+        <v>-0.625</v>
       </c>
       <c r="I95" s="3">
         <v>0</v>
@@ -6825,10 +6831,10 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -6854,25 +6860,25 @@
       <c r="B96" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C96" s="6">
-        <v>95</v>
+      <c r="C96" s="5">
+        <v>94</v>
       </c>
       <c r="D96" s="3">
         <v>75</v>
       </c>
       <c r="E96" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F96" s="3">
         <v>25</v>
       </c>
       <c r="G96" s="3">
         <f t="shared" si="4"/>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="H96" s="3">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6890,10 +6896,10 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -6920,30 +6926,30 @@
         <v>24</v>
       </c>
       <c r="C97" s="6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" s="3">
         <v>75</v>
       </c>
       <c r="E97" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F97" s="3">
         <v>25</v>
       </c>
       <c r="G97" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="H97" s="3">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I97" t="s">
-        <v>47</v>
+      <c r="I97" s="3">
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -6955,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -6985,7 +6991,7 @@
         <v>24</v>
       </c>
       <c r="C98" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98" s="3">
         <v>75</v>
@@ -6997,18 +7003,18 @@
         <v>25</v>
       </c>
       <c r="G98" s="3">
-        <f t="shared" ref="G98:G129" si="7">E98*D98/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H98" s="3">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I98" s="3">
-        <v>0</v>
+      <c r="I98" t="s">
+        <v>47</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -7020,10 +7026,10 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -7047,10 +7053,10 @@
         <v>Green</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="5">
-        <v>98</v>
+        <v>24</v>
+      </c>
+      <c r="C99" s="6">
+        <v>97</v>
       </c>
       <c r="D99" s="3">
         <v>75</v>
@@ -7062,7 +7068,7 @@
         <v>25</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="G99:G130" si="7">E99*D99/100</f>
         <v>0</v>
       </c>
       <c r="H99" s="3">
@@ -7085,10 +7091,10 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -7114,8 +7120,8 @@
       <c r="B100" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="6">
-        <v>99</v>
+      <c r="C100" s="5">
+        <v>98</v>
       </c>
       <c r="D100" s="3">
         <v>75</v>
@@ -7150,10 +7156,10 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -7180,7 +7186,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101" s="3">
         <v>75</v>
@@ -7215,10 +7221,10 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>99</v>
-      </c>
-      <c r="O101" t="s">
-        <v>66</v>
+        <v>98</v>
+      </c>
+      <c r="O101">
+        <v>100</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -7242,19 +7248,19 @@
         <v>Green</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C102" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="3">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G102" s="3">
         <f t="shared" si="7"/>
@@ -7279,11 +7285,11 @@
       <c r="M102">
         <v>0</v>
       </c>
-      <c r="N102" t="s">
+      <c r="N102">
+        <v>99</v>
+      </c>
+      <c r="O102" t="s">
         <v>66</v>
-      </c>
-      <c r="O102">
-        <v>102</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -7307,19 +7313,19 @@
         <v>Green</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="5">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="C103" s="6">
+        <v>101</v>
       </c>
       <c r="D103" s="3">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E103" s="3">
         <v>0</v>
       </c>
       <c r="F103" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G103" s="3">
         <f t="shared" si="7"/>
@@ -7344,11 +7350,11 @@
       <c r="M103">
         <v>0</v>
       </c>
-      <c r="N103">
-        <v>101</v>
+      <c r="N103" t="s">
+        <v>66</v>
       </c>
       <c r="O103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -7374,8 +7380,8 @@
       <c r="B104" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="6">
-        <v>103</v>
+      <c r="C104" s="5">
+        <v>102</v>
       </c>
       <c r="D104" s="3">
         <v>100</v>
@@ -7410,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -7440,10 +7446,10 @@
         <v>27</v>
       </c>
       <c r="C105" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E105" s="3">
         <v>0</v>
@@ -7475,10 +7481,10 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O105">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -7502,13 +7508,13 @@
         <v>Green</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C106" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E106" s="3">
         <v>0</v>
@@ -7524,14 +7530,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I106" t="s">
-        <v>44</v>
+      <c r="I106" s="3">
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" s="3">
         <v>0</v>
@@ -7540,10 +7546,10 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O106">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -7569,8 +7575,8 @@
       <c r="B107" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="5">
-        <v>106</v>
+      <c r="C107" s="6">
+        <v>105</v>
       </c>
       <c r="D107" s="3">
         <v>100</v>
@@ -7589,14 +7595,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I107" s="3">
-        <v>0</v>
+      <c r="I107" t="s">
+        <v>44</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="3">
         <v>0</v>
@@ -7605,10 +7611,10 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -7634,11 +7640,11 @@
       <c r="B108" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C108" s="6">
-        <v>107</v>
+      <c r="C108" s="5">
+        <v>106</v>
       </c>
       <c r="D108" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E108" s="3">
         <v>0</v>
@@ -7670,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -7700,10 +7706,10 @@
         <v>28</v>
       </c>
       <c r="C109" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D109" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E109" s="3">
         <v>0</v>
@@ -7729,16 +7735,16 @@
         <v>0</v>
       </c>
       <c r="L109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -7765,7 +7771,7 @@
         <v>28</v>
       </c>
       <c r="C110" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110" s="3">
         <v>100</v>
@@ -7794,16 +7800,16 @@
         <v>0</v>
       </c>
       <c r="L110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="N110">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -7827,10 +7833,10 @@
         <v>Green</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C111" s="5">
-        <v>110</v>
+        <v>28</v>
+      </c>
+      <c r="C111" s="6">
+        <v>109</v>
       </c>
       <c r="D111" s="3">
         <v>100</v>
@@ -7839,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G111" s="3">
         <f t="shared" si="7"/>
@@ -7865,10 +7871,10 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -7894,8 +7900,8 @@
       <c r="B112" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C112" s="6">
-        <v>111</v>
+      <c r="C112" s="5">
+        <v>110</v>
       </c>
       <c r="D112" s="3">
         <v>100</v>
@@ -7930,10 +7936,10 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -7960,7 +7966,7 @@
         <v>29</v>
       </c>
       <c r="C113" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113" s="3">
         <v>100</v>
@@ -7995,10 +8001,10 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -8025,7 +8031,7 @@
         <v>29</v>
       </c>
       <c r="C114" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D114" s="3">
         <v>100</v>
@@ -8060,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -8089,12 +8095,11 @@
       <c r="B115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="5">
-        <v>114</v>
+      <c r="C115" s="6">
+        <v>113</v>
       </c>
       <c r="D115" s="3">
-        <f>100+62</f>
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E115" s="3">
         <v>0</v>
@@ -8110,14 +8115,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I115" t="s">
-        <v>43</v>
+      <c r="I115" s="3">
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" s="3">
         <v>0</v>
@@ -8126,10 +8131,10 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -8155,11 +8160,12 @@
       <c r="B116" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="6">
-        <v>115</v>
+      <c r="C116" s="5">
+        <v>114</v>
       </c>
       <c r="D116" s="3">
-        <v>100</v>
+        <f>100+62</f>
+        <v>162</v>
       </c>
       <c r="E116" s="3">
         <v>0</v>
@@ -8175,14 +8181,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I116" s="3">
-        <v>0</v>
+      <c r="I116" t="s">
+        <v>43</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" s="3">
         <v>0</v>
@@ -8191,10 +8197,10 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -8221,7 +8227,7 @@
         <v>29</v>
       </c>
       <c r="C117" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="3">
         <v>100</v>
@@ -8256,10 +8262,10 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -8283,19 +8289,19 @@
         <v>Green</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="6">
+        <v>116</v>
+      </c>
+      <c r="D118" s="3">
+        <v>100</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="3">
         <v>30</v>
-      </c>
-      <c r="C118" s="6">
-        <v>117</v>
-      </c>
-      <c r="D118" s="3">
-        <v>50</v>
-      </c>
-      <c r="E118" s="3">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3">
-        <v>15</v>
       </c>
       <c r="G118" s="3">
         <f t="shared" si="7"/>
@@ -8321,10 +8327,10 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O118">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -8350,8 +8356,8 @@
       <c r="B119" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C119" s="5">
-        <v>118</v>
+      <c r="C119" s="6">
+        <v>117</v>
       </c>
       <c r="D119" s="3">
         <v>50</v>
@@ -8386,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -8415,11 +8421,11 @@
       <c r="B120" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="6">
-        <v>119</v>
+      <c r="C120" s="5">
+        <v>118</v>
       </c>
       <c r="D120" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E120" s="3">
         <v>0</v>
@@ -8451,10 +8457,10 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -8481,10 +8487,10 @@
         <v>30</v>
       </c>
       <c r="C121" s="6">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D121" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E121" s="3">
         <v>0</v>
@@ -8516,10 +8522,10 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -8546,7 +8552,7 @@
         <v>30</v>
       </c>
       <c r="C122" s="6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122" s="3">
         <v>50</v>
@@ -8581,10 +8587,10 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -8608,10 +8614,10 @@
         <v>Green</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C123" s="5">
-        <v>122</v>
+        <v>30</v>
+      </c>
+      <c r="C123" s="6">
+        <v>121</v>
       </c>
       <c r="D123" s="3">
         <v>50</v>
@@ -8620,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="F123" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G123" s="3">
         <f t="shared" si="7"/>
@@ -8643,13 +8649,13 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -8675,8 +8681,8 @@
       <c r="B124" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="6">
-        <v>123</v>
+      <c r="C124" s="5">
+        <v>122</v>
       </c>
       <c r="D124" s="3">
         <v>50</v>
@@ -8695,14 +8701,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I124" t="s">
-        <v>42</v>
+      <c r="I124" s="3">
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="3">
         <v>0</v>
@@ -8711,10 +8717,10 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -8741,7 +8747,7 @@
         <v>31</v>
       </c>
       <c r="C125" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125" s="3">
         <v>50</v>
@@ -8760,14 +8766,14 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="I125" s="3">
-        <v>0</v>
+      <c r="I125" t="s">
+        <v>42</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="3">
         <v>0</v>
@@ -8776,10 +8782,10 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -8806,7 +8812,7 @@
         <v>31</v>
       </c>
       <c r="C126" s="6">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D126" s="3">
         <v>50</v>
@@ -8841,10 +8847,10 @@
         <v>1</v>
       </c>
       <c r="N126">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -8870,8 +8876,8 @@
       <c r="B127" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C127" s="5">
-        <v>126</v>
+      <c r="C127" s="6">
+        <v>125</v>
       </c>
       <c r="D127" s="3">
         <v>50</v>
@@ -8906,10 +8912,10 @@
         <v>1</v>
       </c>
       <c r="N127">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -8935,8 +8941,8 @@
       <c r="B128" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C128" s="6">
-        <v>127</v>
+      <c r="C128" s="5">
+        <v>126</v>
       </c>
       <c r="D128" s="3">
         <v>50</v>
@@ -8971,10 +8977,10 @@
         <v>1</v>
       </c>
       <c r="N128">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O128">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -9001,7 +9007,7 @@
         <v>31</v>
       </c>
       <c r="C129" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129" s="3">
         <v>50</v>
@@ -9036,10 +9042,10 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O129">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -9066,7 +9072,7 @@
         <v>31</v>
       </c>
       <c r="C130" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130" s="3">
         <v>50</v>
@@ -9078,7 +9084,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="3">
-        <f t="shared" ref="G130:G151" si="8">E130*D130/100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H130" s="3">
@@ -9101,10 +9107,10 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -9130,8 +9136,8 @@
       <c r="B131" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C131" s="5">
-        <v>130</v>
+      <c r="C131" s="6">
+        <v>129</v>
       </c>
       <c r="D131" s="3">
         <v>50</v>
@@ -9143,7 +9149,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G131:G152" si="8">E131*D131/100</f>
         <v>0</v>
       </c>
       <c r="H131" s="3">
@@ -9166,10 +9172,10 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O131">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -9189,14 +9195,14 @@
     </row>
     <row r="132" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
-        <f t="shared" ref="A132:A151" si="9">A131</f>
+        <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="6">
-        <v>131</v>
+      <c r="C132" s="5">
+        <v>130</v>
       </c>
       <c r="D132" s="3">
         <v>50</v>
@@ -9212,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="3">
-        <f t="shared" ref="H132:H151" si="10">G132+H131</f>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="I132" s="3">
@@ -9231,10 +9237,10 @@
         <v>1</v>
       </c>
       <c r="N132">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O132">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -9254,14 +9260,14 @@
     </row>
     <row r="133" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A133:A152" si="9">A132</f>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C133" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133" s="3">
         <v>50</v>
@@ -9277,14 +9283,14 @@
         <v>0</v>
       </c>
       <c r="H133" s="3">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="I133" t="s">
-        <v>41</v>
+        <f t="shared" ref="H133:H152" si="10">G133+H132</f>
+        <v>0.5</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -9296,10 +9302,10 @@
         <v>1</v>
       </c>
       <c r="N133">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O133">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -9326,7 +9332,7 @@
         <v>31</v>
       </c>
       <c r="C134" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134" s="3">
         <v>50</v>
@@ -9345,11 +9351,11 @@
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="I134" s="3">
-        <v>0</v>
+      <c r="I134" t="s">
+        <v>41</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -9361,10 +9367,10 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O134">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -9390,8 +9396,8 @@
       <c r="B135" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C135" s="5">
-        <v>134</v>
+      <c r="C135" s="6">
+        <v>133</v>
       </c>
       <c r="D135" s="3">
         <v>50</v>
@@ -9426,10 +9432,10 @@
         <v>1</v>
       </c>
       <c r="N135">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O135">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -9455,8 +9461,8 @@
       <c r="B136" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C136" s="6">
-        <v>135</v>
+      <c r="C136" s="5">
+        <v>134</v>
       </c>
       <c r="D136" s="3">
         <v>50</v>
@@ -9491,10 +9497,10 @@
         <v>1</v>
       </c>
       <c r="N136">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O136">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -9521,7 +9527,7 @@
         <v>31</v>
       </c>
       <c r="C137" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D137" s="3">
         <v>50</v>
@@ -9556,10 +9562,10 @@
         <v>1</v>
       </c>
       <c r="N137">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O137">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -9586,7 +9592,7 @@
         <v>31</v>
       </c>
       <c r="C138" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D138" s="3">
         <v>50</v>
@@ -9621,10 +9627,10 @@
         <v>1</v>
       </c>
       <c r="N138">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O138">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -9650,8 +9656,8 @@
       <c r="B139" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C139" s="5">
-        <v>138</v>
+      <c r="C139" s="6">
+        <v>137</v>
       </c>
       <c r="D139" s="3">
         <v>50</v>
@@ -9686,10 +9692,10 @@
         <v>1</v>
       </c>
       <c r="N139">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O139">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -9715,8 +9721,8 @@
       <c r="B140" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C140" s="6">
-        <v>139</v>
+      <c r="C140" s="5">
+        <v>138</v>
       </c>
       <c r="D140" s="3">
         <v>50</v>
@@ -9751,10 +9757,10 @@
         <v>1</v>
       </c>
       <c r="N140">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O140">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -9781,7 +9787,7 @@
         <v>31</v>
       </c>
       <c r="C141" s="6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D141" s="3">
         <v>50</v>
@@ -9816,10 +9822,10 @@
         <v>1</v>
       </c>
       <c r="N141">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O141">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -9846,7 +9852,7 @@
         <v>31</v>
       </c>
       <c r="C142" s="6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142" s="3">
         <v>50</v>
@@ -9865,14 +9871,14 @@
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="I142" t="s">
-        <v>40</v>
+      <c r="I142" s="3">
+        <v>0</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" s="3">
         <v>0</v>
@@ -9881,10 +9887,10 @@
         <v>1</v>
       </c>
       <c r="N142">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O142">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -9910,8 +9916,8 @@
       <c r="B143" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C143" s="5">
-        <v>142</v>
+      <c r="C143" s="6">
+        <v>141</v>
       </c>
       <c r="D143" s="3">
         <v>50</v>
@@ -9930,14 +9936,14 @@
         <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="I143" s="3">
-        <v>0</v>
+      <c r="I143" t="s">
+        <v>40</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" s="3">
         <v>0</v>
@@ -9946,10 +9952,10 @@
         <v>1</v>
       </c>
       <c r="N143">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O143">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -9975,8 +9981,8 @@
       <c r="B144" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C144" s="6">
-        <v>143</v>
+      <c r="C144" s="5">
+        <v>142</v>
       </c>
       <c r="D144" s="3">
         <v>50</v>
@@ -10011,10 +10017,10 @@
         <v>1</v>
       </c>
       <c r="N144">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -10038,10 +10044,10 @@
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C145" s="6">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D145" s="3">
         <v>50</v>
@@ -10073,13 +10079,13 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -10106,7 +10112,7 @@
         <v>32</v>
       </c>
       <c r="C146" s="6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D146" s="3">
         <v>50</v>
@@ -10141,10 +10147,10 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O146">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -10170,8 +10176,8 @@
       <c r="B147" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C147" s="5">
-        <v>146</v>
+      <c r="C147" s="6">
+        <v>145</v>
       </c>
       <c r="D147" s="3">
         <v>50</v>
@@ -10206,10 +10212,10 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O147">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -10233,10 +10239,10 @@
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C148" s="6">
-        <v>147</v>
+        <v>32</v>
+      </c>
+      <c r="C148" s="5">
+        <v>146</v>
       </c>
       <c r="D148" s="3">
         <v>50</v>
@@ -10271,10 +10277,10 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O148">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -10301,11 +10307,10 @@
         <v>33</v>
       </c>
       <c r="C149" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D149" s="3">
-        <f>40+144</f>
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="E149" s="3">
         <v>0</v>
@@ -10337,10 +10342,10 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O149">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -10367,10 +10372,11 @@
         <v>33</v>
       </c>
       <c r="C150" s="6">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D150" s="3">
-        <v>40</v>
+        <f>40+144</f>
+        <v>184</v>
       </c>
       <c r="E150" s="3">
         <v>0</v>
@@ -10402,10 +10408,10 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O150">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -10429,13 +10435,13 @@
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C151" s="5">
-        <v>150</v>
+        <v>33</v>
+      </c>
+      <c r="C151" s="6">
+        <v>149</v>
       </c>
       <c r="D151" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E151" s="3">
         <v>0</v>
@@ -10467,29 +10473,94 @@
         <v>0</v>
       </c>
       <c r="N151">
+        <v>148</v>
+      </c>
+      <c r="O151">
+        <v>150</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="3">
+        <v>0</v>
+      </c>
+      <c r="R151" s="3">
+        <v>0</v>
+      </c>
+      <c r="S151" s="3">
+        <v>0</v>
+      </c>
+      <c r="T151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>Green</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="5">
+        <v>150</v>
+      </c>
+      <c r="D152" s="3">
+        <v>35</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+      <c r="F152" s="3">
+        <v>20</v>
+      </c>
+      <c r="G152" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H152" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152" s="3">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
         <v>149</v>
       </c>
-      <c r="O151" t="s">
+      <c r="O152" t="s">
         <v>66</v>
       </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-      <c r="Q151" s="3">
-        <v>0</v>
-      </c>
-      <c r="R151" s="3">
-        <v>0</v>
-      </c>
-      <c r="S151" s="3">
-        <v>0</v>
-      </c>
-      <c r="T151" s="3">
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="3">
+        <v>0</v>
+      </c>
+      <c r="R152" s="3">
+        <v>0</v>
+      </c>
+      <c r="S152" s="3">
+        <v>0</v>
+      </c>
+      <c r="T152" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:T151">
+  <conditionalFormatting sqref="I2:T152">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b71eb1e12f3a2cab/Documents/2024-2025/ECE 1140/Git Hub/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4B216E-F8B0-4AA0-955C-BC48A94DAF40}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D542BE91-CC21-4B40-B0C6-F29012B62AF1}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
   <si>
     <t>Line</t>
   </si>
@@ -239,13 +239,124 @@
     <t>Non</t>
   </si>
   <si>
-    <t>beep</t>
+    <t>Yard</t>
   </si>
   <si>
-    <t>boop</t>
+    <t>B1,2,Pioneer</t>
   </si>
   <si>
-    <t>Yard</t>
+    <t>B2,2,Pioneer</t>
+  </si>
+  <si>
+    <t>B3,2,Edgebrook</t>
+  </si>
+  <si>
+    <t>B4,2,Edgebrook</t>
+  </si>
+  <si>
+    <t>B5,3,Lebron</t>
+  </si>
+  <si>
+    <t>B6,3,Lebron</t>
+  </si>
+  <si>
+    <t>B7,3,Whited</t>
+  </si>
+  <si>
+    <t>B8,3,Whited</t>
+  </si>
+  <si>
+    <t>B9,2,South Bank</t>
+  </si>
+  <si>
+    <t>B10,2,South Bank</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>B11,1,Central</t>
+  </si>
+  <si>
+    <t>B12,1,Central</t>
+  </si>
+  <si>
+    <t>B13,1,Inglewood</t>
+  </si>
+  <si>
+    <t>B14,1,Inglewood</t>
+  </si>
+  <si>
+    <t>B15,1,Overbrook</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>B16,1,Overbrook</t>
+  </si>
+  <si>
+    <t>B17,1,Glenbury</t>
+  </si>
+  <si>
+    <t>B18,1,Glenbury</t>
+  </si>
+  <si>
+    <t>B19,1,Dormont</t>
+  </si>
+  <si>
+    <t>B20,1,Dormont</t>
+  </si>
+  <si>
+    <t>B21,3,Mt Lebanon</t>
+  </si>
+  <si>
+    <t>B22,3,Mt Lebanon</t>
+  </si>
+  <si>
+    <t>B23,2,Mt Poplar</t>
+  </si>
+  <si>
+    <t>B24,2,Mt Poplar</t>
+  </si>
+  <si>
+    <t>B25,2,Castle Shannon</t>
+  </si>
+  <si>
+    <t>B26,2,Castle Shannon</t>
+  </si>
+  <si>
+    <t>B27,1,Dormont</t>
+  </si>
+  <si>
+    <t>B28,1,Dormont</t>
+  </si>
+  <si>
+    <t>B29,1,Glenbury</t>
+  </si>
+  <si>
+    <t>B30,1,Glenbury</t>
+  </si>
+  <si>
+    <t>B31,1,Overbrook</t>
+  </si>
+  <si>
+    <t>B32,1,Overbrook</t>
+  </si>
+  <si>
+    <t>B33,2,Inglewood</t>
+  </si>
+  <si>
+    <t>B34,2,Inglewood</t>
+  </si>
+  <si>
+    <t>B35,1,Central</t>
+  </si>
+  <si>
+    <t>B36,1,Central</t>
+  </si>
+  <si>
+    <t>T3</t>
   </si>
 </sst>
 </file>
@@ -672,9 +783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8FE392-6FC0-4F53-90EE-920DCF161686}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="102" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="10">
         <v>0</v>
@@ -859,8 +970,8 @@
       <c r="O3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>0</v>
+      <c r="P3" t="s">
+        <v>68</v>
       </c>
       <c r="Q3" s="3">
         <v>0</v>
@@ -989,8 +1100,8 @@
       <c r="O5">
         <v>4</v>
       </c>
-      <c r="P5">
-        <v>0</v>
+      <c r="P5" t="s">
+        <v>69</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
@@ -1314,8 +1425,8 @@
       <c r="O10">
         <v>9</v>
       </c>
-      <c r="P10">
-        <v>0</v>
+      <c r="P10" t="s">
+        <v>70</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -1444,8 +1555,8 @@
       <c r="O12">
         <v>11</v>
       </c>
-      <c r="P12">
-        <v>0</v>
+      <c r="P12" t="s">
+        <v>71</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1769,8 +1880,8 @@
       <c r="O17">
         <v>16</v>
       </c>
-      <c r="P17">
-        <v>0</v>
+      <c r="P17" t="s">
+        <v>72</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1899,8 +2010,8 @@
       <c r="O19">
         <v>18</v>
       </c>
-      <c r="P19">
-        <v>0</v>
+      <c r="P19" t="s">
+        <v>73</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -2159,8 +2270,8 @@
       <c r="O23">
         <v>22</v>
       </c>
-      <c r="P23">
-        <v>0</v>
+      <c r="P23" t="s">
+        <v>74</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -2289,8 +2400,8 @@
       <c r="O25">
         <v>24</v>
       </c>
-      <c r="P25">
-        <v>0</v>
+      <c r="P25" t="s">
+        <v>75</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -2744,8 +2855,8 @@
       <c r="O32">
         <v>31</v>
       </c>
-      <c r="P32">
-        <v>0</v>
+      <c r="P32" t="s">
+        <v>76</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2874,8 +2985,8 @@
       <c r="O34">
         <v>33</v>
       </c>
-      <c r="P34">
-        <v>0</v>
+      <c r="P34" t="s">
+        <v>77</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -3134,8 +3245,8 @@
       <c r="O38">
         <v>37</v>
       </c>
-      <c r="P38">
-        <v>0</v>
+      <c r="P38" t="s">
+        <v>78</v>
       </c>
       <c r="Q38" s="3">
         <v>0</v>
@@ -3264,8 +3375,8 @@
       <c r="O40">
         <v>39</v>
       </c>
-      <c r="P40">
-        <v>0</v>
+      <c r="P40" t="s">
+        <v>79</v>
       </c>
       <c r="Q40" s="3">
         <v>0</v>
@@ -3394,8 +3505,8 @@
       <c r="O42">
         <v>41</v>
       </c>
-      <c r="P42">
-        <v>0</v>
+      <c r="P42" t="s">
+        <v>80</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -3849,8 +3960,8 @@
       <c r="O49">
         <v>48</v>
       </c>
-      <c r="P49">
-        <v>0</v>
+      <c r="P49" t="s">
+        <v>81</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3979,8 +4090,8 @@
       <c r="O51">
         <v>50</v>
       </c>
-      <c r="P51">
-        <v>0</v>
+      <c r="P51" t="s">
+        <v>82</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -4434,8 +4545,8 @@
       <c r="O58">
         <v>57</v>
       </c>
-      <c r="P58">
-        <v>0</v>
+      <c r="P58" t="s">
+        <v>83</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4499,8 +4610,8 @@
       <c r="O59" t="s">
         <v>57</v>
       </c>
-      <c r="P59">
-        <v>0</v>
+      <c r="P59" t="s">
+        <v>84</v>
       </c>
       <c r="Q59" s="3" t="b">
         <v>0</v>
@@ -4564,8 +4675,8 @@
       <c r="O60">
         <v>59</v>
       </c>
-      <c r="P60">
-        <v>0</v>
+      <c r="P60" t="s">
+        <v>85</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -4954,8 +5065,8 @@
       <c r="O66">
         <v>65</v>
       </c>
-      <c r="P66">
-        <v>0</v>
+      <c r="P66" t="s">
+        <v>86</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -5084,8 +5195,8 @@
       <c r="O68">
         <v>67</v>
       </c>
-      <c r="P68">
-        <v>0</v>
+      <c r="P68" t="s">
+        <v>87</v>
       </c>
       <c r="Q68" s="3">
         <v>0</v>
@@ -5474,8 +5585,8 @@
       <c r="O74">
         <v>73</v>
       </c>
-      <c r="P74">
-        <v>0</v>
+      <c r="P74" t="s">
+        <v>88</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -5604,8 +5715,8 @@
       <c r="O76">
         <v>75</v>
       </c>
-      <c r="P76">
-        <v>0</v>
+      <c r="P76" t="s">
+        <v>89</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -5734,8 +5845,8 @@
       <c r="O78">
         <v>77</v>
       </c>
-      <c r="P78">
-        <v>0</v>
+      <c r="P78" t="s">
+        <v>90</v>
       </c>
       <c r="Q78" s="3">
         <v>0</v>
@@ -5864,8 +5975,8 @@
       <c r="O80">
         <v>79</v>
       </c>
-      <c r="P80">
-        <v>0</v>
+      <c r="P80" t="s">
+        <v>91</v>
       </c>
       <c r="Q80" s="3">
         <v>0</v>
@@ -6450,7 +6561,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6577,7 +6688,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6966,8 +7077,8 @@
       <c r="O97">
         <v>96</v>
       </c>
-      <c r="P97">
-        <v>0</v>
+      <c r="P97" t="s">
+        <v>94</v>
       </c>
       <c r="Q97" s="3">
         <v>0</v>
@@ -7096,8 +7207,8 @@
       <c r="O99">
         <v>98</v>
       </c>
-      <c r="P99">
-        <v>0</v>
+      <c r="P99" t="s">
+        <v>95</v>
       </c>
       <c r="Q99" s="3">
         <v>0</v>
@@ -7551,8 +7662,8 @@
       <c r="O106">
         <v>105</v>
       </c>
-      <c r="P106">
-        <v>0</v>
+      <c r="P106" t="s">
+        <v>96</v>
       </c>
       <c r="Q106" s="3">
         <v>0</v>
@@ -7681,8 +7792,8 @@
       <c r="O108">
         <v>107</v>
       </c>
-      <c r="P108">
-        <v>0</v>
+      <c r="P108" t="s">
+        <v>97</v>
       </c>
       <c r="Q108" s="3">
         <v>0</v>
@@ -8136,8 +8247,8 @@
       <c r="O115">
         <v>114</v>
       </c>
-      <c r="P115">
-        <v>0</v>
+      <c r="P115" t="s">
+        <v>98</v>
       </c>
       <c r="Q115" s="3">
         <v>0</v>
@@ -8267,8 +8378,8 @@
       <c r="O117">
         <v>116</v>
       </c>
-      <c r="P117">
-        <v>0</v>
+      <c r="P117" t="s">
+        <v>99</v>
       </c>
       <c r="Q117" s="3">
         <v>0</v>
@@ -8722,8 +8833,8 @@
       <c r="O124">
         <v>123</v>
       </c>
-      <c r="P124">
-        <v>0</v>
+      <c r="P124" t="s">
+        <v>100</v>
       </c>
       <c r="Q124" s="3">
         <v>0</v>
@@ -8852,8 +8963,8 @@
       <c r="O126">
         <v>125</v>
       </c>
-      <c r="P126">
-        <v>0</v>
+      <c r="P126" t="s">
+        <v>101</v>
       </c>
       <c r="Q126" s="3">
         <v>0</v>
@@ -9307,8 +9418,8 @@
       <c r="O133">
         <v>132</v>
       </c>
-      <c r="P133">
-        <v>0</v>
+      <c r="P133" t="s">
+        <v>102</v>
       </c>
       <c r="Q133" s="3">
         <v>0</v>
@@ -9437,8 +9548,8 @@
       <c r="O135">
         <v>134</v>
       </c>
-      <c r="P135">
-        <v>0</v>
+      <c r="P135" t="s">
+        <v>103</v>
       </c>
       <c r="Q135" s="3">
         <v>0</v>
@@ -9892,8 +10003,8 @@
       <c r="O142">
         <v>141</v>
       </c>
-      <c r="P142">
-        <v>0</v>
+      <c r="P142" t="s">
+        <v>104</v>
       </c>
       <c r="Q142" s="3">
         <v>0</v>
@@ -10022,8 +10133,8 @@
       <c r="O144">
         <v>143</v>
       </c>
-      <c r="P144">
-        <v>0</v>
+      <c r="P144" t="s">
+        <v>105</v>
       </c>
       <c r="Q144" s="3">
         <v>0</v>
@@ -10087,8 +10198,8 @@
       <c r="O145">
         <v>144</v>
       </c>
-      <c r="P145">
-        <v>0</v>
+      <c r="P145" t="s">
+        <v>106</v>
       </c>
       <c r="Q145" s="3">
         <v>0</v>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b71eb1e12f3a2cab/Documents/2024-2025/ECE 1140/Git Hub/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D542BE91-CC21-4B40-B0C6-F29012B62AF1}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27E5A1D-2AD5-4579-825E-6061D9761D7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
@@ -785,7 +785,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P152"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P2">
         <v>0</v>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4B216E-F8B0-4AA0-955C-BC48A94DAF40}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AC96E52-64DD-4D76-B87A-96A2AAB63E1C}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10284" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
   <si>
     <t>Line</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Edgebrook</t>
   </si>
   <si>
-    <t>Unnamed</t>
-  </si>
-  <si>
     <t>South Bank</t>
   </si>
   <si>
@@ -239,13 +236,127 @@
     <t>Non</t>
   </si>
   <si>
-    <t>beep</t>
+    <t>Yard</t>
   </si>
   <si>
-    <t>boop</t>
+    <t>B1,2,Pioneer</t>
   </si>
   <si>
-    <t>Yard</t>
+    <t>B2,2,Pioneer</t>
+  </si>
+  <si>
+    <t>B3,2,Edgebrook</t>
+  </si>
+  <si>
+    <t>B4,2,Edgebrook</t>
+  </si>
+  <si>
+    <t>Lebron</t>
+  </si>
+  <si>
+    <t>B5,3,Lebron</t>
+  </si>
+  <si>
+    <t>B6,3,Lebron</t>
+  </si>
+  <si>
+    <t>B7,3,Whited</t>
+  </si>
+  <si>
+    <t>B8,3,Whited</t>
+  </si>
+  <si>
+    <t>B9,2,South Bank</t>
+  </si>
+  <si>
+    <t>B10,2,South Bank</t>
+  </si>
+  <si>
+    <t>B11,1,Central</t>
+  </si>
+  <si>
+    <t>B12,1,Central</t>
+  </si>
+  <si>
+    <t>B13,1,Inglewood</t>
+  </si>
+  <si>
+    <t>B14,1,Inglewood</t>
+  </si>
+  <si>
+    <t>B15,1,Overbrook</t>
+  </si>
+  <si>
+    <t>B16,1,Overbrook</t>
+  </si>
+  <si>
+    <t>B17,1,Glenbury</t>
+  </si>
+  <si>
+    <t>B18,1,Glenbury</t>
+  </si>
+  <si>
+    <t>B19,1,Dormont</t>
+  </si>
+  <si>
+    <t>B20,1,Dormont</t>
+  </si>
+  <si>
+    <t>B21,3,Mt Lebanon</t>
+  </si>
+  <si>
+    <t>B22,3,Mt Lebanon</t>
+  </si>
+  <si>
+    <t>B23,2,Mt Poplar</t>
+  </si>
+  <si>
+    <t>B24,2,Mt Poplar</t>
+  </si>
+  <si>
+    <t>B25,2,Castle Shannon</t>
+  </si>
+  <si>
+    <t>B26,2,Castle Shannon</t>
+  </si>
+  <si>
+    <t>B27,1,Dormont</t>
+  </si>
+  <si>
+    <t>B28,1,Dormont</t>
+  </si>
+  <si>
+    <t>B29,1,Glenbury</t>
+  </si>
+  <si>
+    <t>B30,1,Glenbury</t>
+  </si>
+  <si>
+    <t>B31,1,Overbrook</t>
+  </si>
+  <si>
+    <t>B32,1,Overbrook</t>
+  </si>
+  <si>
+    <t>B33,2,Inglewood</t>
+  </si>
+  <si>
+    <t>B34,2,Inglewood</t>
+  </si>
+  <si>
+    <t>B35,1,Central</t>
+  </si>
+  <si>
+    <t>B36,1,Central</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
   </si>
 </sst>
 </file>
@@ -672,9 +783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8FE392-6FC0-4F53-90EE-920DCF161686}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="102" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,6 +796,7 @@
     <col min="11" max="11" width="11.44140625" customWidth="1"/>
     <col min="12" max="12" width="21.5546875" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
@@ -716,37 +828,37 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -754,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="10">
         <v>0</v>
@@ -854,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>0</v>
+      <c r="P3" t="s">
+        <v>67</v>
       </c>
       <c r="Q3" s="3">
         <v>0</v>
@@ -989,8 +1101,8 @@
       <c r="O5">
         <v>4</v>
       </c>
-      <c r="P5">
-        <v>0</v>
+      <c r="P5" t="s">
+        <v>68</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
@@ -1314,8 +1426,8 @@
       <c r="O10">
         <v>9</v>
       </c>
-      <c r="P10">
-        <v>0</v>
+      <c r="P10" t="s">
+        <v>69</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -1444,8 +1556,8 @@
       <c r="O12">
         <v>11</v>
       </c>
-      <c r="P12">
-        <v>0</v>
+      <c r="P12" t="s">
+        <v>70</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1634,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O15">
         <v>14</v>
@@ -1769,8 +1881,8 @@
       <c r="O17">
         <v>16</v>
       </c>
-      <c r="P17">
-        <v>0</v>
+      <c r="P17" t="s">
+        <v>72</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1814,7 +1926,7 @@
         <v>0.5</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1899,8 +2011,8 @@
       <c r="O19">
         <v>18</v>
       </c>
-      <c r="P19">
-        <v>0</v>
+      <c r="P19" t="s">
+        <v>73</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -2159,8 +2271,8 @@
       <c r="O23">
         <v>22</v>
       </c>
-      <c r="P23">
-        <v>0</v>
+      <c r="P23" t="s">
+        <v>74</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -2204,7 +2316,7 @@
         <v>0.5</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2289,8 +2401,8 @@
       <c r="O25">
         <v>24</v>
       </c>
-      <c r="P25">
-        <v>0</v>
+      <c r="P25" t="s">
+        <v>75</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -2612,7 +2724,7 @@
         <v>27</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2744,8 +2856,8 @@
       <c r="O32">
         <v>31</v>
       </c>
-      <c r="P32">
-        <v>0</v>
+      <c r="P32" t="s">
+        <v>76</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2789,7 +2901,7 @@
         <v>0.5</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2874,8 +2986,8 @@
       <c r="O34">
         <v>33</v>
       </c>
-      <c r="P34">
-        <v>0</v>
+      <c r="P34" t="s">
+        <v>77</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -3134,8 +3246,8 @@
       <c r="O38">
         <v>37</v>
       </c>
-      <c r="P38">
-        <v>0</v>
+      <c r="P38" t="s">
+        <v>104</v>
       </c>
       <c r="Q38" s="3">
         <v>0</v>
@@ -3264,8 +3376,8 @@
       <c r="O40">
         <v>39</v>
       </c>
-      <c r="P40">
-        <v>0</v>
+      <c r="P40" t="s">
+        <v>78</v>
       </c>
       <c r="Q40" s="3">
         <v>0</v>
@@ -3309,7 +3421,7 @@
         <v>0.5</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -3394,8 +3506,8 @@
       <c r="O42">
         <v>41</v>
       </c>
-      <c r="P42">
-        <v>0</v>
+      <c r="P42" t="s">
+        <v>79</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -3849,8 +3961,8 @@
       <c r="O49">
         <v>48</v>
       </c>
-      <c r="P49">
-        <v>0</v>
+      <c r="P49" t="s">
+        <v>80</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3894,7 +4006,7 @@
         <v>0.5</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3979,8 +4091,8 @@
       <c r="O51">
         <v>50</v>
       </c>
-      <c r="P51">
-        <v>0</v>
+      <c r="P51" t="s">
+        <v>81</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -4434,8 +4546,8 @@
       <c r="O58">
         <v>57</v>
       </c>
-      <c r="P58">
-        <v>0</v>
+      <c r="P58" t="s">
+        <v>82</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4479,7 +4591,7 @@
         <v>0.5</v>
       </c>
       <c r="I59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4497,10 +4609,10 @@
         <v>56</v>
       </c>
       <c r="O59" t="s">
-        <v>57</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="P59" t="s">
+        <v>105</v>
       </c>
       <c r="Q59" s="3" t="b">
         <v>0</v>
@@ -4564,8 +4676,8 @@
       <c r="O60">
         <v>59</v>
       </c>
-      <c r="P60">
-        <v>0</v>
+      <c r="P60" t="s">
+        <v>83</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -4884,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O65">
         <v>64</v>
@@ -4954,8 +5066,8 @@
       <c r="O66">
         <v>65</v>
       </c>
-      <c r="P66">
-        <v>0</v>
+      <c r="P66" t="s">
+        <v>84</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -4999,7 +5111,7 @@
         <v>0.5</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -5084,8 +5196,8 @@
       <c r="O68">
         <v>67</v>
       </c>
-      <c r="P68">
-        <v>0</v>
+      <c r="P68" t="s">
+        <v>85</v>
       </c>
       <c r="Q68" s="3">
         <v>0</v>
@@ -5474,8 +5586,8 @@
       <c r="O74">
         <v>73</v>
       </c>
-      <c r="P74">
-        <v>0</v>
+      <c r="P74" t="s">
+        <v>86</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -5519,7 +5631,7 @@
         <v>0.5</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -5604,8 +5716,8 @@
       <c r="O76">
         <v>75</v>
       </c>
-      <c r="P76">
-        <v>0</v>
+      <c r="P76" t="s">
+        <v>87</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -5734,8 +5846,8 @@
       <c r="O78">
         <v>77</v>
       </c>
-      <c r="P78">
-        <v>0</v>
+      <c r="P78" t="s">
+        <v>88</v>
       </c>
       <c r="Q78" s="3">
         <v>0</v>
@@ -5779,7 +5891,7 @@
         <v>0.5</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -5794,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O79">
         <v>78</v>
@@ -5864,8 +5976,8 @@
       <c r="O80">
         <v>79</v>
       </c>
-      <c r="P80">
-        <v>0</v>
+      <c r="P80" t="s">
+        <v>89</v>
       </c>
       <c r="Q80" s="3">
         <v>0</v>
@@ -6317,7 +6429,7 @@
         <v>84</v>
       </c>
       <c r="O87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -6450,7 +6562,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6494,7 +6606,7 @@
         <v>0.5</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -6577,7 +6689,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6966,8 +7078,8 @@
       <c r="O97">
         <v>96</v>
       </c>
-      <c r="P97">
-        <v>0</v>
+      <c r="P97" t="s">
+        <v>92</v>
       </c>
       <c r="Q97" s="3">
         <v>0</v>
@@ -7011,7 +7123,7 @@
         <v>0.5</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -7096,8 +7208,8 @@
       <c r="O99">
         <v>98</v>
       </c>
-      <c r="P99">
-        <v>0</v>
+      <c r="P99" t="s">
+        <v>93</v>
       </c>
       <c r="Q99" s="3">
         <v>0</v>
@@ -7289,7 +7401,7 @@
         <v>99</v>
       </c>
       <c r="O102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -7351,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O103">
         <v>102</v>
@@ -7551,8 +7663,8 @@
       <c r="O106">
         <v>105</v>
       </c>
-      <c r="P106">
-        <v>0</v>
+      <c r="P106" t="s">
+        <v>94</v>
       </c>
       <c r="Q106" s="3">
         <v>0</v>
@@ -7596,7 +7708,7 @@
         <v>0.5</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -7681,8 +7793,8 @@
       <c r="O108">
         <v>107</v>
       </c>
-      <c r="P108">
-        <v>0</v>
+      <c r="P108" t="s">
+        <v>95</v>
       </c>
       <c r="Q108" s="3">
         <v>0</v>
@@ -8136,8 +8248,8 @@
       <c r="O115">
         <v>114</v>
       </c>
-      <c r="P115">
-        <v>0</v>
+      <c r="P115" t="s">
+        <v>96</v>
       </c>
       <c r="Q115" s="3">
         <v>0</v>
@@ -8182,7 +8294,7 @@
         <v>0.5</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -8267,8 +8379,8 @@
       <c r="O117">
         <v>116</v>
       </c>
-      <c r="P117">
-        <v>0</v>
+      <c r="P117" t="s">
+        <v>97</v>
       </c>
       <c r="Q117" s="3">
         <v>0</v>
@@ -8722,8 +8834,8 @@
       <c r="O124">
         <v>123</v>
       </c>
-      <c r="P124">
-        <v>0</v>
+      <c r="P124" t="s">
+        <v>98</v>
       </c>
       <c r="Q124" s="3">
         <v>0</v>
@@ -8767,7 +8879,7 @@
         <v>0.5</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -8852,8 +8964,8 @@
       <c r="O126">
         <v>125</v>
       </c>
-      <c r="P126">
-        <v>0</v>
+      <c r="P126" t="s">
+        <v>99</v>
       </c>
       <c r="Q126" s="3">
         <v>0</v>
@@ -9307,8 +9419,8 @@
       <c r="O133">
         <v>132</v>
       </c>
-      <c r="P133">
-        <v>0</v>
+      <c r="P133" t="s">
+        <v>100</v>
       </c>
       <c r="Q133" s="3">
         <v>0</v>
@@ -9352,7 +9464,7 @@
         <v>0.5</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J134">
         <v>1</v>
@@ -9437,8 +9549,8 @@
       <c r="O135">
         <v>134</v>
       </c>
-      <c r="P135">
-        <v>0</v>
+      <c r="P135" t="s">
+        <v>101</v>
       </c>
       <c r="Q135" s="3">
         <v>0</v>
@@ -9892,8 +10004,8 @@
       <c r="O142">
         <v>141</v>
       </c>
-      <c r="P142">
-        <v>0</v>
+      <c r="P142" t="s">
+        <v>102</v>
       </c>
       <c r="Q142" s="3">
         <v>0</v>
@@ -9937,7 +10049,7 @@
         <v>0.5</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -10022,8 +10134,8 @@
       <c r="O144">
         <v>143</v>
       </c>
-      <c r="P144">
-        <v>0</v>
+      <c r="P144" t="s">
+        <v>103</v>
       </c>
       <c r="Q144" s="3">
         <v>0</v>
@@ -10087,8 +10199,8 @@
       <c r="O145">
         <v>144</v>
       </c>
-      <c r="P145">
-        <v>0</v>
+      <c r="P145" t="s">
+        <v>106</v>
       </c>
       <c r="Q145" s="3">
         <v>0</v>
@@ -10541,7 +10653,7 @@
         <v>149</v>
       </c>
       <c r="O152" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P152">
         <v>0</v>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\TrackModel\trackData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{F5A40FCF-132B-4770-BC5C-2DBF2C123779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AC96E52-64DD-4D76-B87A-96A2AAB63E1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247374CB-8036-4A5A-8CE7-7EEC22481196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10284" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,6 @@
     <t>Beacon Info</t>
   </si>
   <si>
-    <t>1, 12</t>
-  </si>
-  <si>
     <t>58, 0</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>T3</t>
+  </si>
+  <si>
+    <t>12, 1</t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,8 @@
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143:XFD143"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,16 +849,16 @@
         <v>54</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="10">
         <v>0</v>
@@ -966,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O3">
         <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="3">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="P5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="O15">
         <v>14</v>
@@ -1882,7 +1882,7 @@
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0.5</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2012,7 +2012,7 @@
         <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>27</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>37</v>
       </c>
       <c r="P38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q38" s="3">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="3">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>48</v>
       </c>
       <c r="P49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>50</v>
       </c>
       <c r="P51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>57</v>
       </c>
       <c r="P58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4609,10 +4609,10 @@
         <v>56</v>
       </c>
       <c r="O59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q59" s="3" t="b">
         <v>0</v>
@@ -4677,7 +4677,7 @@
         <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O65">
         <v>64</v>
@@ -5067,7 +5067,7 @@
         <v>65</v>
       </c>
       <c r="P66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>67</v>
       </c>
       <c r="P68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q68" s="3">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>73</v>
       </c>
       <c r="P74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>75</v>
       </c>
       <c r="P76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -5847,7 +5847,7 @@
         <v>77</v>
       </c>
       <c r="P78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q78" s="3">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O79">
         <v>78</v>
@@ -5977,7 +5977,7 @@
         <v>79</v>
       </c>
       <c r="P80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q80" s="3">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>84</v>
       </c>
       <c r="O87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="3">
         <v>0</v>
@@ -7209,7 +7209,7 @@
         <v>98</v>
       </c>
       <c r="P99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q99" s="3">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>99</v>
       </c>
       <c r="O102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O103">
         <v>102</v>
@@ -7664,7 +7664,7 @@
         <v>105</v>
       </c>
       <c r="P106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q106" s="3">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>107</v>
       </c>
       <c r="P108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q108" s="3">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>114</v>
       </c>
       <c r="P115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q115" s="3">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>116</v>
       </c>
       <c r="P117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q117" s="3">
         <v>0</v>
@@ -8835,7 +8835,7 @@
         <v>123</v>
       </c>
       <c r="P124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q124" s="3">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>125</v>
       </c>
       <c r="P126" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q126" s="3">
         <v>0</v>
@@ -9420,7 +9420,7 @@
         <v>132</v>
       </c>
       <c r="P133" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q133" s="3">
         <v>0</v>
@@ -9550,7 +9550,7 @@
         <v>134</v>
       </c>
       <c r="P135" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q135" s="3">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>141</v>
       </c>
       <c r="P142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q142" s="3">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>143</v>
       </c>
       <c r="P144" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q144" s="3">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>144</v>
       </c>
       <c r="P145" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q145" s="3">
         <v>0</v>
@@ -10653,7 +10653,7 @@
         <v>149</v>
       </c>
       <c r="O152" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P152">
         <v>0</v>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\TrackModel\trackData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247374CB-8036-4A5A-8CE7-7EEC22481196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{247374CB-8036-4A5A-8CE7-7EEC22481196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692D30C0-0827-4056-AD70-9981F6B87FD4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="108">
   <si>
     <t>Line</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>12, 1</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -784,8 +787,8 @@
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,11 +904,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>64</v>
-      </c>
-      <c r="O2">
-        <v>56</v>
+      <c r="N2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -965,11 +968,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3">
+      <c r="N3">
         <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>107</v>
       </c>
       <c r="P3" t="s">
         <v>66</v>
@@ -1031,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
         <v>1</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1096,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
         <v>2</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
       </c>
       <c r="P5" t="s">
         <v>67</v>
@@ -1161,10 +1164,10 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
         <v>3</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1226,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
         <v>4</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1291,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
         <v>5</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1356,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
         <v>6</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1421,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
         <v>7</v>
-      </c>
-      <c r="O10">
-        <v>9</v>
       </c>
       <c r="P10" t="s">
         <v>68</v>
@@ -1486,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
         <v>8</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1551,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
         <v>9</v>
-      </c>
-      <c r="O12">
-        <v>11</v>
       </c>
       <c r="P12" t="s">
         <v>69</v>
@@ -1616,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
         <v>10</v>
-      </c>
-      <c r="O13">
-        <v>12</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1681,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
         <v>11</v>
-      </c>
-      <c r="O14">
-        <v>13</v>
       </c>
       <c r="P14">
         <v>0</v>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\TrackModel\trackData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{247374CB-8036-4A5A-8CE7-7EEC22481196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692D30C0-0827-4056-AD70-9981F6B87FD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647A6665-FA60-4BD7-807B-67FD5BA895AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="107">
   <si>
     <t>Line</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>12, 1</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
@@ -788,7 +785,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -972,10 +969,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="3">
         <v>0</v>
@@ -1105,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\TrackModel\trackData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b71eb1e12f3a2cab/Documents/2024-2025/ECE 1140/Git Hub/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647A6665-FA60-4BD7-807B-67FD5BA895AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{647A6665-FA60-4BD7-807B-67FD5BA895AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBF29C25-8C94-4DB8-8B27-76EE3E56769E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="107">
   <si>
     <t>Line</t>
   </si>
@@ -784,22 +784,22 @@
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P103" sqref="P103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="7"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +861,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>A3</f>
         <v>Green</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" ref="A5:A68" si="1">A4</f>
         <v>Green</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3197,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f>A35</f>
         <v>Green</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5017,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f t="shared" ref="A69:A132" si="5">A68</f>
         <v>Green</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6769,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7468,8 +7468,8 @@
       <c r="O103">
         <v>102</v>
       </c>
-      <c r="P103">
-        <v>0</v>
+      <c r="P103" t="s">
+        <v>87</v>
       </c>
       <c r="Q103" s="3">
         <v>0</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8785,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="str">
         <f t="shared" ref="A133:A152" si="9">A132</f>
         <v>Green</v>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -9955,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10020,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10085,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Green</v>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trains C\trains\TrackModel\trackData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647A6665-FA60-4BD7-807B-67FD5BA895AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -784,8 +784,8 @@
   <dimension ref="A1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647A6665-FA60-4BD7-807B-67FD5BA895AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{647A6665-FA60-4BD7-807B-67FD5BA895AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83140386-D68A-4825-AF35-22424B921FBD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="107">
   <si>
     <t>Line</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Beacon Info</t>
   </si>
   <si>
-    <t>58, 0</t>
-  </si>
-  <si>
     <t>76, 101</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>12, 1</t>
+  </si>
+  <si>
+    <t>58, 151</t>
   </si>
 </sst>
 </file>
@@ -781,11 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8FE392-6FC0-4F53-90EE-920DCF161686}">
-  <dimension ref="A1:T152"/>
+  <dimension ref="A1:T153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P78" sqref="P78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M153" sqref="M153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,16 +849,16 @@
         <v>54</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -969,10 +969,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="3">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="3">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="P10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O15">
         <v>14</v>
@@ -1882,7 +1882,7 @@
         <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0.5</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2012,7 +2012,7 @@
         <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>27</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>31</v>
       </c>
       <c r="P32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>37</v>
       </c>
       <c r="P38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q38" s="3">
         <v>0</v>
@@ -3377,7 +3377,7 @@
         <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="3">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>41</v>
       </c>
       <c r="P42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>48</v>
       </c>
       <c r="P49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>50</v>
       </c>
       <c r="P51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="3">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>57</v>
       </c>
       <c r="P58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4609,10 +4609,10 @@
         <v>56</v>
       </c>
       <c r="O59" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="P59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q59" s="3" t="b">
         <v>0</v>
@@ -4677,7 +4677,7 @@
         <v>59</v>
       </c>
       <c r="P60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O65">
         <v>64</v>
@@ -5067,7 +5067,7 @@
         <v>65</v>
       </c>
       <c r="P66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -5197,7 +5197,7 @@
         <v>67</v>
       </c>
       <c r="P68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q68" s="3">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>73</v>
       </c>
       <c r="P74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>75</v>
       </c>
       <c r="P76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -5847,7 +5847,7 @@
         <v>77</v>
       </c>
       <c r="P78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q78" s="3">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O79">
         <v>78</v>
@@ -5977,7 +5977,7 @@
         <v>79</v>
       </c>
       <c r="P80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q80" s="3">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>84</v>
       </c>
       <c r="O87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>88</v>
       </c>
       <c r="P89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6689,7 +6689,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q97" s="3">
         <v>0</v>
@@ -7209,7 +7209,7 @@
         <v>98</v>
       </c>
       <c r="P99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q99" s="3">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>99</v>
       </c>
       <c r="O102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O103">
         <v>102</v>
@@ -7664,7 +7664,7 @@
         <v>105</v>
       </c>
       <c r="P106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q106" s="3">
         <v>0</v>
@@ -7794,7 +7794,7 @@
         <v>107</v>
       </c>
       <c r="P108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q108" s="3">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>114</v>
       </c>
       <c r="P115" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q115" s="3">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>116</v>
       </c>
       <c r="P117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q117" s="3">
         <v>0</v>
@@ -8835,7 +8835,7 @@
         <v>123</v>
       </c>
       <c r="P124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q124" s="3">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>125</v>
       </c>
       <c r="P126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q126" s="3">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="3">
-        <f t="shared" ref="G131:G152" si="8">E131*D131/100</f>
+        <f t="shared" ref="G131:G153" si="8">E131*D131/100</f>
         <v>0</v>
       </c>
       <c r="H131" s="3">
@@ -9420,7 +9420,7 @@
         <v>132</v>
       </c>
       <c r="P133" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q133" s="3">
         <v>0</v>
@@ -9550,7 +9550,7 @@
         <v>134</v>
       </c>
       <c r="P135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q135" s="3">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>141</v>
       </c>
       <c r="P142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q142" s="3">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>143</v>
       </c>
       <c r="P144" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q144" s="3">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>144</v>
       </c>
       <c r="P145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q145" s="3">
         <v>0</v>
@@ -10653,26 +10653,89 @@
         <v>149</v>
       </c>
       <c r="O152" t="s">
+        <v>63</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="3">
+        <v>0</v>
+      </c>
+      <c r="R152" s="3">
+        <v>0</v>
+      </c>
+      <c r="S152" s="3">
+        <v>0</v>
+      </c>
+      <c r="T152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-      <c r="Q152" s="3">
-        <v>0</v>
-      </c>
-      <c r="R152" s="3">
-        <v>0</v>
-      </c>
-      <c r="S152" s="3">
-        <v>0</v>
-      </c>
-      <c r="T152" s="3">
+      <c r="C153" s="7">
+        <v>151</v>
+      </c>
+      <c r="D153" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0</v>
+      </c>
+      <c r="F153" s="3">
+        <v>10</v>
+      </c>
+      <c r="G153" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0</v>
+      </c>
+      <c r="J153" s="3">
+        <v>0</v>
+      </c>
+      <c r="K153" s="3">
+        <v>0</v>
+      </c>
+      <c r="L153" s="3">
+        <v>0</v>
+      </c>
+      <c r="M153" s="3">
+        <v>0</v>
+      </c>
+      <c r="N153" s="3">
+        <v>57</v>
+      </c>
+      <c r="O153" s="3">
+        <v>151</v>
+      </c>
+      <c r="P153" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="3">
+        <v>0</v>
+      </c>
+      <c r="R153" s="3">
+        <v>0</v>
+      </c>
+      <c r="S153" s="3">
+        <v>0</v>
+      </c>
+      <c r="T153" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:T152">
+  <conditionalFormatting sqref="I2:T153">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/TrackModel/trackData/GreenLine.xlsx
+++ b/TrackModel/trackData/GreenLine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/njm130_pitt_edu/Documents/Documents/1140 Trains/trains/TrackModel/trackData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b71eb1e12f3a2cab/Documents/2024-2025/ECE 1140/Git Hub/trains/TrackModel/trackData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{647A6665-FA60-4BD7-807B-67FD5BA895AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83140386-D68A-4825-AF35-22424B921FBD}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{647A6665-FA60-4BD7-807B-67FD5BA895AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{281E65B0-EEC2-40F9-92FB-AB218D3E7E10}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B511C03-6C71-48AB-BE22-1C54007507AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="107">
   <si>
     <t>Line</t>
   </si>
@@ -363,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +385,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -413,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,6 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,8 +791,8 @@
   <dimension ref="A1:T153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M153" sqref="M153"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S101" sqref="S101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7468,8 +7475,8 @@
       <c r="O103">
         <v>102</v>
       </c>
-      <c r="P103">
-        <v>0</v>
+      <c r="P103" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="Q103" s="3">
         <v>0</v>
@@ -10735,7 +10742,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:T153">
+  <conditionalFormatting sqref="I2:T102 I104:T153 I103:O103 Q103:T103">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
